--- a/web/templates/semester.xlsx
+++ b/web/templates/semester.xlsx
@@ -1,5 +1,776 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\education\art\projects\arina\web\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="6540" yWindow="0" windowWidth="16560" windowHeight="6225"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$21</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Назва дисципліни за навчальним планом</t>
+  </si>
+  <si>
+    <t>Середній бал</t>
+  </si>
+  <si>
+    <t>Пропуски</t>
+  </si>
+  <si>
+    <t>Поведінка</t>
+  </si>
+  <si>
+    <t>до сесії ______________студентів</t>
+  </si>
+  <si>
+    <t>після сесії____________студентів</t>
+  </si>
+  <si>
+    <t>Зведена відомість</t>
+  </si>
+  <si>
+    <t xml:space="preserve">успішності та дисциплін </t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>З неповажної причини</t>
+  </si>
+  <si>
+    <t>Відраховано:</t>
+  </si>
+  <si>
+    <t>Прізвище, ім'я, по батькові студента</t>
+  </si>
+  <si>
+    <t>Бюджет/контракт</t>
+  </si>
+  <si>
+    <t>Кількість пропусків/прогулів на одного студента</t>
+  </si>
+  <si>
+    <t>Задовільно:                      студ.</t>
+  </si>
+  <si>
+    <t>Незадовільно:                  студ.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>0000/1111</t>
+  </si>
+  <si>
+    <t>GG-000</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Відмінно:                         студ.</t>
+  </si>
+  <si>
+    <t>Добре:                              студ.</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="200" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="201" formatCode="0.0"/>
+    <numFmt numFmtId="202" formatCode="0.0;[Red]0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="31">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="200" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
@@ -345,6 +1116,355 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="116" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="3.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="str">
+        <f>CONCATENATE("студентів групи ", $J$302," за ",$J$303," семестр")</f>
+        <v>студентів групи GG-000 за X семестр</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="str">
+        <f>CONCATENATE($J$301," навчального року")</f>
+        <v>0000/1111 навчального року</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="301" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J301" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J302" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J303" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>